--- a/StockInvestment/doc/작업일지.xlsx
+++ b/StockInvestment/doc/작업일지.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StockInvestment\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mysite\StockInvestment\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{394AF55D-665D-4843-9033-DBCF6774F916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB1A3CE-9923-4BDC-BD9A-51A34E3A149C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C95881F-2E55-47F7-845F-D9030DD3F894}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>일자</t>
     <phoneticPr fontId="2"/>
@@ -54,7 +54,23 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>git 를 사용하기</t>
+    <t>1. git 인스톨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. Github 인스톨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>- 소스 코드 관리만 하는 것일까?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. git 를 사용하기</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. python 을 사용하기</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -111,7 +127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -123,6 +139,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,35 +460,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4FEDFA-6DC9-4857-8362-D7BE9CE65C14}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="21.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -474,8 +497,24 @@
       <c r="A2" s="2">
         <v>44549</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/StockInvestment/doc/작업일지.xlsx
+++ b/StockInvestment/doc/작업일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mysite\StockInvestment\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB1A3CE-9923-4BDC-BD9A-51A34E3A149C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C50F4AD-259A-4D0D-B925-DE9B013E6066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C95881F-2E55-47F7-845F-D9030DD3F894}"/>
+    <workbookView xWindow="2310" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{0C95881F-2E55-47F7-845F-D9030DD3F894}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>일자</t>
     <phoneticPr fontId="2"/>
@@ -71,6 +71,291 @@
   </si>
   <si>
     <t>2. python 을 사용하기</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>KRX한국거래소</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://kind.krx.co.kr/corpgeneral/corpList.do?method=loadInitPage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 주식 종목 작성하기</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pip install beautifulsoup4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://www.crummy.com/software/BeautifulSoup/bs4/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pip install requests</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3. python 에 requests 을 인스톨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. python 에 beautifulsoup 을 인스톨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pip install selenium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4. python 에 selenium 을 인스톨</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://chancoding.tistory.com/136</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2. Chrome Driver 설치하기</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://chromedriver.chromium.org/downloads</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">사용중 chrome ver：버전 96.0.4664.110(공식 빌드) (64비트)
+ver：96.0.4664.45⇒chromedriver_win32.zip
+- 해동한 chromedriver.exe 를 아래 장소에 격납한다.
+C:\windows\system32&gt;python
+&gt;&gt;&gt; import os
+&gt;&gt;&gt; os.getcwd()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'C:\\windows\\system32'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">D:\mysite\StockInvestment\StockInvestment\src
+</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pip install html-table-parser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>. python 에 html-table-parser 을 인스톨</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>pip install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Gulim"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>pandas</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">2. python </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> pandas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인스톨</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Requirement already satisfied</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">3. python </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> lxml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인스톨</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>pip install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> lxml</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -81,7 +366,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +389,43 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Gulim"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Gulim"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,32 +444,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,66 +798,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4FEDFA-6DC9-4857-8362-D7BE9CE65C14}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.25" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="121.5" x14ac:dyDescent="0.4">
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>44549</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="C3" s="5" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{06766ADE-AB0B-4D29-8CB7-0CAD8C2D9C06}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{299214F6-4E67-4D34-82B7-8121506B2D05}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{BB2EFE96-C514-437E-BB45-ED99D54FF7D6}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{6363BD67-C3F4-4747-B0FD-401494D34FCF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>